--- a/code/20191021.xlsx
+++ b/code/20191021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhu/Desktop/Graduate-project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1EC5C4-D204-D946-B562-407731772FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE92BF23-9906-DD4E-A6FB-F18CC5F0CCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6420" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="單向當沖基本統計量" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,22 @@
     <sheet name="稅率調降基本統計量(一年)" sheetId="5" r:id="rId5"/>
     <sheet name="基本統計量檢定結果" sheetId="6" r:id="rId6"/>
     <sheet name="Part 3" sheetId="7" r:id="rId7"/>
+    <sheet name="Correlation" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="62">
   <si>
     <t>上市</t>
   </si>
@@ -168,6 +177,205 @@
   <si>
     <t>險制</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corr( log(assets), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現股當沖比重 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corr( D/A比, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現股當沖比重 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corr( P/B比, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現股當沖比重 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corr( 成交量週轉率, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現股當沖比重 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corr( 日/週/月報酬率標準差, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現股當沖比重 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corr( ROA, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現股當沖比重 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corr( β, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現股當沖比重 )</t>
+    </r>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -223,6 +431,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="7">
@@ -330,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -381,6 +603,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,11 +621,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -413,6 +662,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AA3528-9C66-0E44-876E-14285586B9D6}" name="Table1" displayName="Table1" ref="A1:H9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H9" xr:uid="{B8D5C903-6784-0D47-9AF0-9CE783DE942B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{09C5A987-6F1C-4F4F-8582-EE66700C9A1E}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{65EF5783-69D5-5247-9FE7-BB129DAD141C}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{D4FCCC4F-C093-8F49-B245-C89BAF9ACD8D}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{64F04B7B-3505-B743-B06A-034F801281C7}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{5011AAE4-0409-AF41-9A93-2B13182A89D1}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{EB425AE0-AC6C-EB4B-B772-CBBAEAC806EC}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{99F579D3-E9B5-1847-A17E-EFA661EF0F8D}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{EB5906D3-0519-0349-AB80-F06FE174E6CD}" name="Column8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,7 +885,7 @@
   <dimension ref="A1:O996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -628,63 +894,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1142,63 +1408,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="38" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -1656,63 +1922,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="38" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -5714,63 +5980,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -6228,63 +6494,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="38" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -6742,63 +7008,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="38" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -7257,18 +7523,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="A31:O31"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B17:O17"/>
     <mergeCell ref="A16:O16"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="A31:O31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7288,63 +7554,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -7802,63 +8068,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="38" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -8316,63 +8582,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="38" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -8831,6 +9097,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="I3:O3"/>
@@ -8838,11 +9109,6 @@
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8862,63 +9128,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -9376,63 +9642,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="38" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -9890,63 +10156,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="38" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -10429,70 +10695,70 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -10950,63 +11216,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="38" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -11464,63 +11730,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="38" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -11947,7 +12213,7 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
@@ -11957,51 +12223,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="40" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="40" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -12479,51 +12745,51 @@
       <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="40" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="40" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="40" t="s">
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="40" t="s">
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="37"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
@@ -13001,51 +13267,51 @@
       <c r="A28" s="30"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="40" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="40" t="s">
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="40" t="s">
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="40" t="s">
+      <c r="L30" s="36"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="37"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
@@ -13524,12 +13790,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="H16:J16"/>
@@ -13542,8 +13802,15 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -13551,7 +13818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
@@ -13563,51 +13830,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="40" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="40" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -14035,51 +14302,51 @@
       <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="40" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="40" t="s">
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="40" t="s">
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="40" t="s">
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
@@ -14504,51 +14771,51 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="40" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="40" t="s">
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="40" t="s">
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="40" t="s">
+      <c r="L28" s="36"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
@@ -14974,25 +15241,123 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FABEA0-BEAA-AB4B-B632-A0A2A89D38E2}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="D3" sqref="C3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14">
+      <c r="A1" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14">
+      <c r="A2" s="42"/>
+      <c r="E2" s="43">
+        <v>41645</v>
+      </c>
+      <c r="F2" s="43">
+        <v>41820</v>
+      </c>
+      <c r="G2" s="43">
+        <v>42401</v>
+      </c>
+      <c r="H2" s="43">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/code/20191021.xlsx
+++ b/code/20191021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhu/Desktop/Graduate-project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE92BF23-9906-DD4E-A6FB-F18CC5F0CCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160AB170-126F-6345-9835-00DA213446FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-6880" windowWidth="38400" windowHeight="21600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="單向當沖基本統計量" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="64">
   <si>
     <t>上市</t>
   </si>
@@ -279,31 +279,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Corr( 日/週/月報酬率標準差, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>現股當沖比重 )</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Corr( ROA, </t>
     </r>
     <r>
@@ -375,6 +350,81 @@
   </si>
   <si>
     <t>Column8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corr( 日報酬率標準差, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現股當沖比重 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corr( 週報酬率標準差, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現股當沖比重 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corr( 月報酬率標準差, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現股當沖比重 )</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -552,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -604,6 +654,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,17 +675,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -651,6 +699,9 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -665,10 +716,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AA3528-9C66-0E44-876E-14285586B9D6}" name="Table1" displayName="Table1" ref="A1:H9" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H9" xr:uid="{B8D5C903-6784-0D47-9AF0-9CE783DE942B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9AA3528-9C66-0E44-876E-14285586B9D6}" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H11" xr:uid="{B8D5C903-6784-0D47-9AF0-9CE783DE942B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{09C5A987-6F1C-4F4F-8582-EE66700C9A1E}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{09C5A987-6F1C-4F4F-8582-EE66700C9A1E}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{65EF5783-69D5-5247-9FE7-BB129DAD141C}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{D4FCCC4F-C093-8F49-B245-C89BAF9ACD8D}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{64F04B7B-3505-B743-B06A-034F801281C7}" name="Column4"/>
@@ -894,63 +945,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="39" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1408,63 +1459,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="39" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -1922,63 +1973,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="39" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -5980,63 +6031,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="39" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -6494,63 +6545,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="39" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -7008,63 +7059,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="39" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -7523,18 +7574,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="A16:O16"/>
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="I33:O33"/>
     <mergeCell ref="B32:O32"/>
     <mergeCell ref="A31:O31"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="A16:O16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7554,63 +7605,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="39" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -8068,63 +8119,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="39" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -8582,63 +8633,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="39" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -9097,11 +9148,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="I3:O3"/>
@@ -9109,6 +9155,11 @@
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9128,63 +9179,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="39" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -9642,63 +9693,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="39" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -10156,63 +10207,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="39" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -10702,63 +10753,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="39" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -11216,63 +11267,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="39" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -11730,63 +11781,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="39" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -12223,51 +12274,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="37"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -12745,51 +12796,51 @@
       <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="41" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="41" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="41" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="37"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
@@ -13267,51 +13318,51 @@
       <c r="A28" s="30"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="41" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="41" t="s">
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="41" t="s">
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="36"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="41" t="s">
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="36"/>
-      <c r="P30" s="37"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
@@ -13790,6 +13841,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="H16:J16"/>
@@ -13802,12 +13859,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13830,51 +13881,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="41" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="37"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -14302,51 +14353,51 @@
       <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="41" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="41" t="s">
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="41" t="s">
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="41" t="s">
+      <c r="L15" s="40"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="36"/>
-      <c r="P15" s="37"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
@@ -14771,51 +14822,51 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="41" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="41" t="s">
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="41" t="s">
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="41" t="s">
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="37"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
@@ -15241,24 +15292,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15266,93 +15317,103 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FABEA0-BEAA-AB4B-B632-A0A2A89D38E2}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="D3" sqref="C3:D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:10" ht="14">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="43" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="14">
+      <c r="A2" s="36"/>
+      <c r="E2" s="37">
+        <v>41645</v>
+      </c>
+      <c r="F2" s="37">
+        <v>41820</v>
+      </c>
+      <c r="G2" s="37">
+        <v>42401</v>
+      </c>
+      <c r="H2" s="37">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="35" customFormat="1" ht="15">
+      <c r="A7" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14">
-      <c r="A2" s="42"/>
-      <c r="E2" s="43">
-        <v>41645</v>
-      </c>
-      <c r="F2" s="43">
-        <v>41820</v>
-      </c>
-      <c r="G2" s="43">
-        <v>42401</v>
-      </c>
-      <c r="H2" s="43">
-        <v>42853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="42" t="s">
+    <row r="8" spans="1:10" s="35" customFormat="1" ht="15">
+      <c r="A8" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="42" t="s">
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
+    <row r="12" spans="1:10">
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/20191021.xlsx
+++ b/code/20191021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhu/Desktop/Graduate-project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160AB170-126F-6345-9835-00DA213446FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235B3DD0-D6CC-0642-A919-2DBD24E9791A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-6880" windowWidth="38400" windowHeight="21600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="65">
   <si>
     <t>上市</t>
   </si>
@@ -426,6 +426,9 @@
       <t>現股當沖比重 )</t>
     </r>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -602,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -674,6 +677,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7599,7 +7605,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:O25"/>
+      <selection activeCell="B17" sqref="B17:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -15320,7 +15326,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -15370,6 +15376,18 @@
       <c r="A3" s="36" t="s">
         <v>47</v>
       </c>
+      <c r="E3" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>5.3215930000000002E-2</v>
+      </c>
+      <c r="G3">
+        <v>-0.21752002000000001</v>
+      </c>
+      <c r="H3">
+        <v>-0.17190733</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15">
       <c r="A4" s="36" t="s">

--- a/code/20191021.xlsx
+++ b/code/20191021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhu/Desktop/Graduate-project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235B3DD0-D6CC-0642-A919-2DBD24E9791A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76F8F18-4D49-2944-8608-3A504D82B1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6880" windowWidth="38400" windowHeight="21600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-6420" windowWidth="38400" windowHeight="21140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="單向當沖基本統計量" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="66">
   <si>
     <t>上市</t>
   </si>
@@ -429,6 +429,9 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>NAN</t>
+  </si>
 </sst>
 </file>
 
@@ -605,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -661,6 +664,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,7 +684,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -951,63 +957,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="43" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1465,63 +1471,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="43" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -1979,63 +1985,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="43" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -6037,63 +6043,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="43" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -6551,63 +6557,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="43" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -7065,63 +7071,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="43" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -7580,18 +7586,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="A31:O31"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B17:O17"/>
     <mergeCell ref="A16:O16"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="A31:O31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7611,63 +7617,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="43" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -8125,63 +8131,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="43" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -8639,63 +8645,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="43" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -9154,6 +9160,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="I3:O3"/>
@@ -9161,11 +9172,6 @@
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9185,63 +9191,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="43" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -9699,63 +9705,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="43" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -10213,63 +10219,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="43" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -10759,63 +10765,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="43" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -11273,63 +11279,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="43" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -11787,63 +11793,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="43" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -12280,51 +12286,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="45" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="45" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -12802,51 +12808,51 @@
       <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="45" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="45" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="45" t="s">
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="45" t="s">
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="42"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
@@ -13324,51 +13330,51 @@
       <c r="A28" s="30"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="45" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="45" t="s">
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="45" t="s">
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="45" t="s">
+      <c r="L30" s="41"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="42"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
@@ -13847,12 +13853,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="H16:J16"/>
@@ -13865,6 +13865,12 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13887,51 +13893,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="45" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="45" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -14359,51 +14365,51 @@
       <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="45" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="45" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="45" t="s">
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="45" t="s">
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
@@ -14828,51 +14834,51 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="45" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="45" t="s">
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="45" t="s">
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="45" t="s">
+      <c r="L28" s="41"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="42"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
@@ -15298,24 +15304,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15326,7 +15332,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -15376,33 +15382,69 @@
       <c r="A3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="39" t="s">
         <v>64</v>
       </c>
       <c r="F3">
-        <v>5.3215930000000002E-2</v>
+        <v>5.7166059999999998E-2</v>
       </c>
       <c r="G3">
-        <v>-0.21752002000000001</v>
+        <v>-4.1240529999999997E-2</v>
       </c>
       <c r="H3">
-        <v>-0.17190733</v>
+        <v>-5.8286930000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15">
       <c r="A4" s="36" t="s">
         <v>48</v>
       </c>
+      <c r="E4" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="35">
+        <v>-1.6605999999999999E-3</v>
+      </c>
+      <c r="G4" s="35">
+        <v>-1.1360230000000001E-2</v>
+      </c>
+      <c r="H4" s="35">
+        <v>-3.827643E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15">
       <c r="A5" s="36" t="s">
         <v>49</v>
       </c>
+      <c r="E5">
+        <v>0.33583433000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.25343655999999998</v>
+      </c>
+      <c r="G5">
+        <v>-9.2639529999999998E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.8194989999999998E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15">
       <c r="A6" s="36" t="s">
         <v>50</v>
       </c>
+      <c r="E6">
+        <v>0.1942895</v>
+      </c>
+      <c r="F6">
+        <v>9.2021900000000004E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.13259357999999999</v>
+      </c>
+      <c r="H6">
+        <v>8.2805110000000001E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="35" customFormat="1" ht="15">
       <c r="A7" s="36" t="s">
@@ -15423,10 +15465,34 @@
       <c r="A10" s="36" t="s">
         <v>51</v>
       </c>
+      <c r="E10" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="47">
+        <v>-4.3350479999999997E-2</v>
+      </c>
+      <c r="H10" s="47">
+        <v>-1.6479319999999999E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="36" t="s">
         <v>52</v>
+      </c>
+      <c r="E11" s="47">
+        <v>0.25603966</v>
+      </c>
+      <c r="F11" s="47">
+        <v>0.19409308</v>
+      </c>
+      <c r="G11" s="47">
+        <v>0.12495012</v>
+      </c>
+      <c r="H11" s="47">
+        <v>0.27239628999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">

--- a/code/20191021.xlsx
+++ b/code/20191021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhu/Desktop/Graduate-project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76F8F18-4D49-2944-8608-3A504D82B1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0FC72-6660-D54D-B82D-13F44AB68412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6420" windowWidth="38400" windowHeight="21140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="單向當沖基本統計量" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="65">
   <si>
     <t>上市</t>
   </si>
@@ -427,9 +427,6 @@
     </r>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>NAN</t>
   </si>
 </sst>
@@ -667,6 +664,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,9 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,63 +954,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1471,63 +1468,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="44" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -1985,63 +1982,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="44" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -6043,63 +6040,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -6557,63 +6554,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="44" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -7071,63 +7068,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="44" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -7586,18 +7583,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="A16:O16"/>
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="I33:O33"/>
     <mergeCell ref="B32:O32"/>
     <mergeCell ref="A31:O31"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="A16:O16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7617,63 +7614,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -8131,63 +8128,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="44" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -8645,63 +8642,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="44" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -9160,11 +9157,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="I3:O3"/>
@@ -9172,6 +9164,11 @@
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9191,63 +9188,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -9705,63 +9702,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="44" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -10219,63 +10216,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="44" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -10765,63 +10762,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -11279,63 +11276,63 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="44" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -11793,63 +11790,63 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="44" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -12286,51 +12283,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="46" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -12808,51 +12805,51 @@
       <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="46" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="46" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="46" t="s">
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="46" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
@@ -13330,51 +13327,51 @@
       <c r="A28" s="30"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="46" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="46" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="46" t="s">
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="46" t="s">
+      <c r="L30" s="42"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="41"/>
-      <c r="P30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="43"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
@@ -13853,6 +13850,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="H16:J16"/>
@@ -13865,12 +13868,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13881,7 +13878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
@@ -13893,51 +13890,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="46" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -14365,51 +14362,51 @@
       <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="46" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="46" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="46" t="s">
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="46" t="s">
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
@@ -14834,51 +14831,51 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="46" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="46" t="s">
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="46" t="s">
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="46" t="s">
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
@@ -15304,24 +15301,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15331,8 +15328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FABEA0-BEAA-AB4B-B632-A0A2A89D38E2}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="168" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -15450,31 +15447,67 @@
       <c r="A7" s="36" t="s">
         <v>61</v>
       </c>
+      <c r="E7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="35">
+        <v>-1.728973E-2</v>
+      </c>
+      <c r="G7" s="35">
+        <v>6.2816179999999999E-2</v>
+      </c>
+      <c r="H7" s="35">
+        <v>1.44181E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="35" customFormat="1" ht="15">
       <c r="A8" s="36" t="s">
         <v>62</v>
       </c>
+      <c r="E8" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="35">
+        <v>-9.5412299999999995E-3</v>
+      </c>
+      <c r="G8" s="35">
+        <v>2.1060450000000001E-2</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1.8240880000000001E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="36" t="s">
         <v>63</v>
       </c>
+      <c r="E9" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <v>5.8251909999999997E-2</v>
+      </c>
+      <c r="G9">
+        <v>-0.10743111</v>
+      </c>
+      <c r="H9">
+        <v>0.15296262999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="47">
+      <c r="E10" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="40">
         <v>-4.3350479999999997E-2</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="40">
         <v>-1.6479319999999999E-2</v>
       </c>
     </row>
@@ -15482,16 +15515,16 @@
       <c r="A11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="40">
         <v>0.25603966</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="40">
         <v>0.19409308</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="40">
         <v>0.12495012</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="40">
         <v>0.27239628999999999</v>
       </c>
     </row>

--- a/code/20191021.xlsx
+++ b/code/20191021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhu/Desktop/Graduate-project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0FC72-6660-D54D-B82D-13F44AB68412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E416382-0643-284D-9AB4-4F99602454A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="單向當沖基本統計量" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="稅率調降基本統計量(半年)" sheetId="4" r:id="rId4"/>
     <sheet name="稅率調降基本統計量(一年)" sheetId="5" r:id="rId5"/>
     <sheet name="基本統計量檢定結果" sheetId="6" r:id="rId6"/>
-    <sheet name="Part 3" sheetId="7" r:id="rId7"/>
-    <sheet name="Correlation" sheetId="8" r:id="rId8"/>
+    <sheet name="Δy顯著性結果" sheetId="7" r:id="rId7"/>
+    <sheet name="相關係數" sheetId="8" r:id="rId8"/>
+    <sheet name="迴歸" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7583,18 +7584,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="A31:O31"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B17:O17"/>
     <mergeCell ref="A16:O16"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="A31:O31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9157,6 +9158,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="I3:O3"/>
@@ -9164,11 +9170,6 @@
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13850,12 +13851,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="H16:J16"/>
@@ -13868,6 +13863,12 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13878,7 +13879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
@@ -15301,24 +15302,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15538,4 +15539,16 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B35C8-723F-654E-9C75-434AEF6E85A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>